--- a/target/classes/excel/cpcpoinumber_output.xlsx
+++ b/target/classes/excel/cpcpoinumber_output.xlsx
@@ -563,12 +563,12 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="22"/>
+        <fgColor indexed="23"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor indexed="23"/>
       </patternFill>
     </fill>
   </fills>

--- a/target/classes/excel/cpcpoinumber_output.xlsx
+++ b/target/classes/excel/cpcpoinumber_output.xlsx
@@ -33,7 +33,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>SirAlwaid</author>
+    <author>MauroWB</author>
   </authors>
   <commentList/>
 </comments>
